--- a/ConceptMap-R5-ValueSet-elements-for-R4-ValueSet.xlsx
+++ b/ConceptMap-R5-ValueSet-elements-for-R4-ValueSet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="274">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:34.8628172-06:00</t>
+    <t>2026-02-09T22:05:44.3436075-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -192,9 +192,6 @@
     <t>versionAlgorithm[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.versionAlgorithm</t>
-  </si>
-  <si>
     <t>ValueSet.name</t>
   </si>
   <si>
@@ -213,9 +210,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.title</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.title</t>
-  </si>
-  <si>
     <t>ValueSet.status</t>
   </si>
   <si>
@@ -306,9 +300,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.purpose</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.requirements</t>
-  </si>
-  <si>
     <t>ValueSet.copyright</t>
   </si>
   <si>
@@ -324,90 +315,60 @@
     <t>copyrightLabel</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.copyrightLabel</t>
-  </si>
-  <si>
     <t>ValueSet.approvalDate</t>
   </si>
   <si>
     <t>approvalDate</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.approvalDate</t>
-  </si>
-  <si>
     <t>ValueSet.lastReviewDate</t>
   </si>
   <si>
     <t>lastReviewDate</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.lastReviewDate</t>
-  </si>
-  <si>
     <t>ValueSet.effectivePeriod</t>
   </si>
   <si>
     <t>effectivePeriod</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.effectivePeriod</t>
-  </si>
-  <si>
     <t>ValueSet.topic</t>
   </si>
   <si>
     <t>topic</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.topic</t>
-  </si>
-  <si>
     <t>ValueSet.author</t>
   </si>
   <si>
     <t>author</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.author</t>
-  </si>
-  <si>
     <t>ValueSet.editor</t>
   </si>
   <si>
     <t>editor</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.editor</t>
-  </si>
-  <si>
     <t>ValueSet.reviewer</t>
   </si>
   <si>
     <t>reviewer</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.reviewer</t>
-  </si>
-  <si>
     <t>ValueSet.endorser</t>
   </si>
   <si>
     <t>endorser</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.endorser</t>
-  </si>
-  <si>
     <t>ValueSet.relatedArtifact</t>
   </si>
   <si>
     <t>relatedArtifact</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.relatedArtifact</t>
-  </si>
-  <si>
     <t>ValueSet.compose</t>
   </si>
   <si>
@@ -426,9 +387,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.compose.lockedDate</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.lockedDate</t>
-  </si>
-  <si>
     <t>ValueSet.compose.inactive</t>
   </si>
   <si>
@@ -438,9 +396,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.compose.inactive</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.compose.inactive</t>
-  </si>
-  <si>
     <t>ValueSet.compose.include</t>
   </si>
   <si>
@@ -450,9 +405,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.compose.include</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.codeSystem</t>
-  </si>
-  <si>
     <t>ValueSet.compose.include.system</t>
   </si>
   <si>
@@ -525,9 +477,6 @@
     <t>additionalUse</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.compose.include.concept.designation.additionalUse</t>
-  </si>
-  <si>
     <t>ValueSet.compose.include.concept.designation.value</t>
   </si>
   <si>
@@ -579,15 +528,9 @@
     <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.compose.include.valueSet</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.compose.import</t>
-  </si>
-  <si>
     <t>ValueSet.compose.include.copyright</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.compose.include.copyright</t>
-  </si>
-  <si>
     <t>ValueSet.compose.exclude</t>
   </si>
   <si>
@@ -696,15 +639,9 @@
     <t>ValueSet.compose.exclude.copyright</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.compose.exclude.copyright</t>
-  </si>
-  <si>
     <t>ValueSet.compose.property</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.compose.property</t>
-  </si>
-  <si>
     <t>ValueSet.expansion</t>
   </si>
   <si>
@@ -726,9 +663,6 @@
     <t>next</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.expansion.next</t>
-  </si>
-  <si>
     <t>ValueSet.expansion.timestamp</t>
   </si>
   <si>
@@ -783,24 +717,15 @@
     <t>ValueSet.expansion.property</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.expansion.property</t>
-  </si>
-  <si>
     <t>ValueSet.expansion.property.code</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.expansion.property:code</t>
-  </si>
-  <si>
     <t>ValueSet.expansion.property.uri</t>
   </si>
   <si>
     <t>uri</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.expansion.property:uri</t>
-  </si>
-  <si>
     <t>ValueSet.expansion.contains.system</t>
   </si>
   <si>
@@ -822,9 +747,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.expansion.contains.inactive</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.expansion.contains.inactive</t>
-  </si>
-  <si>
     <t>ValueSet.expansion.contains.version</t>
   </si>
   <si>
@@ -849,48 +771,27 @@
     <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.expansion.contains.designation</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.expansion.contains.designation</t>
-  </si>
-  <si>
     <t>ValueSet.expansion.contains.property</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.expansion.contains.property</t>
-  </si>
-  <si>
     <t>ValueSet.expansion.contains.property.code</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.expansion.contains.property:code</t>
-  </si>
-  <si>
     <t>ValueSet.expansion.contains.property.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.expansion.contains.property:value</t>
-  </si>
-  <si>
     <t>ValueSet.expansion.contains.property.subProperty</t>
   </si>
   <si>
     <t>subProperty</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.expansion.contains.property:subProperty</t>
-  </si>
-  <si>
     <t>ValueSet.expansion.contains.property.subProperty.code</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.expansion.contains.property:subProperty:code</t>
-  </si>
-  <si>
     <t>ValueSet.expansion.contains.property.subProperty.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.expansion.contains.property:subProperty:value</t>
-  </si>
-  <si>
     <t>ValueSet.expansion.contains.contains</t>
   </si>
   <si>
@@ -903,61 +804,37 @@
     <t>scope</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.scope</t>
-  </si>
-  <si>
     <t>ValueSet.scope.inclusionCriteria</t>
   </si>
   <si>
     <t>inclusionCriteria</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.scope:inclusionCriteria</t>
-  </si>
-  <si>
     <t>ValueSet.scope.exclusionCriteria</t>
   </si>
   <si>
     <t>exclusionCriteria</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.scope:exclusionCriteria</t>
-  </si>
-  <si>
     <t>ValueSet.expansion.contains.designation.language</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.expansion.contains.designation.language</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.expansion.contains.designation:language</t>
-  </si>
-  <si>
     <t>ValueSet.expansion.contains.designation.use</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.expansion.contains.designation.use</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.expansion.contains.designation:use</t>
-  </si>
-  <si>
     <t>ValueSet.expansion.contains.designation.additionalUse</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.expansion.contains.designation.additionalUse</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.expansion.contains.designation:additionalUse</t>
-  </si>
-  <si>
     <t>ValueSet.expansion.contains.designation.value</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.expansion.contains.designation.value</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.expansion.contains.designation:value</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1091,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E126"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1378,254 +1255,254 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>63</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>64</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="E31" s="2"/>
     </row>
@@ -1638,137 +1515,137 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E42" s="2"/>
     </row>
@@ -1781,42 +1658,42 @@
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B44" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -1829,24 +1706,24 @@
         <v>149</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E48" s="2"/>
     </row>
@@ -1894,20 +1771,20 @@
         <v>163</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -1930,36 +1807,36 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="E55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -1972,50 +1849,50 @@
         <v>177</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>178</v>
+        <v>55</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E61" s="2"/>
     </row>
@@ -2024,154 +1901,154 @@
         <v>185</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E70" s="2"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="E72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="E73" s="2"/>
     </row>
@@ -2180,297 +2057,297 @@
         <v>208</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="E74" s="2"/>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="B75" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="E75" s="2"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>172</v>
+        <v>52</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E76" s="2"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="E77" s="2"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E78" s="2"/>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E79" s="2"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E80" s="2"/>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E81" s="2"/>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>172</v>
+        <v>60</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E82" s="2"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E83" s="2"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="E84" s="2"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>99</v>
+        <v>211</v>
       </c>
       <c r="E85" s="2"/>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>99</v>
+        <v>236</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="E86" s="2"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="E87" s="2"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="E88" s="2"/>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="E89" s="2"/>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>236</v>
+        <v>55</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="E90" s="2"/>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>239</v>
+        <v>139</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="E91" s="2"/>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>242</v>
+        <v>142</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E92" s="2"/>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>245</v>
+        <v>145</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E93" s="2"/>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>248</v>
+        <v>161</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>249</v>
+        <v>198</v>
       </c>
       <c r="E94" s="2"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>251</v>
+        <v>198</v>
       </c>
       <c r="E95" s="2"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>254</v>
+        <v>198</v>
       </c>
       <c r="E96" s="2"/>
     </row>
@@ -2479,11 +2356,11 @@
         <v>255</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>178</v>
+        <v>256</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>256</v>
+        <v>198</v>
       </c>
       <c r="E97" s="2"/>
     </row>
@@ -2492,377 +2369,130 @@
         <v>257</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="E98" s="2"/>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>261</v>
+        <v>198</v>
       </c>
       <c r="E99" s="2"/>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>147</v>
+        <v>197</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E100" s="2"/>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>266</v>
+        <v>32</v>
       </c>
       <c r="E101" s="2"/>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>139</v>
+        <v>264</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>268</v>
+        <v>32</v>
       </c>
       <c r="E102" s="2"/>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>139</v>
+        <v>266</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>269</v>
+        <v>32</v>
       </c>
       <c r="E103" s="2"/>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E104" s="2"/>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E105" s="2"/>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="E106" s="2"/>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E107" s="2"/>
-    </row>
-    <row r="108">
-      <c r="A108" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="E108" s="2"/>
-    </row>
-    <row r="109">
-      <c r="A109" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="E109" s="2"/>
-    </row>
-    <row r="110">
-      <c r="A110" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="E110" s="2"/>
-    </row>
-    <row r="111">
-      <c r="A111" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="E111" s="2"/>
-    </row>
-    <row r="112">
-      <c r="A112" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="E112" s="2"/>
-    </row>
-    <row r="113">
-      <c r="A113" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C113" s="2"/>
-      <c r="D113" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="E113" s="2"/>
-    </row>
-    <row r="114">
-      <c r="A114" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="C114" s="2"/>
-      <c r="D114" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="E114" s="2"/>
-    </row>
-    <row r="115">
-      <c r="A115" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="E115" s="2"/>
-    </row>
-    <row r="116">
-      <c r="A116" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="B116" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="C116" s="2"/>
-      <c r="D116" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="E116" s="2"/>
-    </row>
-    <row r="117">
-      <c r="A117" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="C117" s="2"/>
-      <c r="D117" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="E117" s="2"/>
-    </row>
-    <row r="118">
-      <c r="A118" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="C118" s="2"/>
-      <c r="D118" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="E118" s="2"/>
-    </row>
-    <row r="119">
-      <c r="A119" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="B119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="C119" s="2"/>
-      <c r="D119" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="E119" s="2"/>
-    </row>
-    <row r="120">
-      <c r="A120" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="B120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="C120" s="2"/>
-      <c r="D120" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="E120" s="2"/>
-    </row>
-    <row r="121">
-      <c r="A121" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="B121" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="C121" s="2"/>
-      <c r="D121" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="E121" s="2"/>
-    </row>
-    <row r="122">
-      <c r="A122" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="B122" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="C122" s="2"/>
-      <c r="D122" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="E122" s="2"/>
-    </row>
-    <row r="123">
-      <c r="A123" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="B123" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="C123" s="2"/>
-      <c r="D123" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="E123" s="2"/>
-    </row>
-    <row r="124">
-      <c r="A124" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="B124" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="C124" s="2"/>
-      <c r="D124" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="E124" s="2"/>
-    </row>
-    <row r="125">
-      <c r="A125" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="B125" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="C125" s="2"/>
-      <c r="D125" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="E125" s="2"/>
-    </row>
-    <row r="126">
-      <c r="A126" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="B126" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="C126" s="2"/>
-      <c r="D126" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="E126" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ConceptMap-R5-ValueSet-elements-for-R4-ValueSet.xlsx
+++ b/ConceptMap-R5-ValueSet-elements-for-R4-ValueSet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="237">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:44.3436075-06:00</t>
+    <t>2026-02-17T14:42:27.6542148-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -540,67 +540,91 @@
     <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.compose.exclude</t>
   </si>
   <si>
-    <t>ValueSet.compose.exclude.system</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.compose.exclude.system</t>
-  </si>
-  <si>
-    <t>ValueSet.compose.exclude.version</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.compose.exclude.version</t>
-  </si>
-  <si>
-    <t>ValueSet.compose.exclude.concept</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.compose.exclude.concept</t>
-  </si>
-  <si>
-    <t>ValueSet.compose.exclude.concept.code</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.compose.exclude.concept.code</t>
-  </si>
-  <si>
-    <t>ValueSet.compose.exclude.concept.display</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.compose.exclude.concept.display</t>
-  </si>
-  <si>
-    <t>ValueSet.compose.exclude.concept.designation</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.compose.exclude.concept.designation</t>
-  </si>
-  <si>
-    <t>ValueSet.compose.exclude.concept.designation.language</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.compose.exclude.concept.designation.language</t>
-  </si>
-  <si>
-    <t>ValueSet.compose.exclude.concept.designation.use</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.compose.exclude.concept.designation.use</t>
-  </si>
-  <si>
-    <t>ValueSet.compose.exclude.concept.designation.additionalUse</t>
-  </si>
-  <si>
-    <t>ValueSet.compose.exclude.concept.designation.value</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.compose.exclude.concept.designation.value</t>
-  </si>
-  <si>
-    <t>ValueSet.compose.exclude.filter</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.compose.exclude.filter</t>
+    <t>ValueSet.compose.property</t>
+  </si>
+  <si>
+    <t>ValueSet.expansion</t>
+  </si>
+  <si>
+    <t>expansion</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.expansion</t>
+  </si>
+  <si>
+    <t>ValueSet.expansion.identifier</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.expansion.identifier</t>
+  </si>
+  <si>
+    <t>ValueSet.expansion.next</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>ValueSet.expansion.timestamp</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.expansion.timestamp</t>
+  </si>
+  <si>
+    <t>ValueSet.expansion.total</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.expansion.total</t>
+  </si>
+  <si>
+    <t>ValueSet.expansion.offset</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.expansion.offset</t>
+  </si>
+  <si>
+    <t>ValueSet.expansion.parameter</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.expansion.parameter</t>
+  </si>
+  <si>
+    <t>ValueSet.expansion.parameter.name</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.expansion.parameter.name</t>
+  </si>
+  <si>
+    <t>ValueSet.expansion.parameter.value[x]</t>
+  </si>
+  <si>
+    <t>value[x]</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.expansion.parameter.value[x]</t>
+  </si>
+  <si>
+    <t>ValueSet.expansion.property</t>
+  </si>
+  <si>
+    <t>ValueSet.expansion.property.code</t>
+  </si>
+  <si>
+    <t>ValueSet.expansion.property.uri</t>
+  </si>
+  <si>
+    <t>uri</t>
   </si>
   <si>
     <t>ValueSet.expansion.contains</t>
@@ -612,120 +636,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.expansion.contains</t>
   </si>
   <si>
-    <t>ValueSet.compose.exclude.filter.property</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.compose.exclude.filter.property</t>
-  </si>
-  <si>
-    <t>ValueSet.compose.exclude.filter.op</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.compose.exclude.filter.op</t>
-  </si>
-  <si>
-    <t>ValueSet.compose.exclude.filter.value</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.compose.exclude.filter.value</t>
-  </si>
-  <si>
-    <t>ValueSet.compose.exclude.valueSet</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.compose.exclude.valueSet</t>
-  </si>
-  <si>
-    <t>ValueSet.compose.exclude.copyright</t>
-  </si>
-  <si>
-    <t>ValueSet.compose.property</t>
-  </si>
-  <si>
-    <t>ValueSet.expansion</t>
-  </si>
-  <si>
-    <t>expansion</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.expansion</t>
-  </si>
-  <si>
-    <t>ValueSet.expansion.identifier</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.expansion.identifier</t>
-  </si>
-  <si>
-    <t>ValueSet.expansion.next</t>
-  </si>
-  <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>ValueSet.expansion.timestamp</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.expansion.timestamp</t>
-  </si>
-  <si>
-    <t>ValueSet.expansion.total</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.expansion.total</t>
-  </si>
-  <si>
-    <t>ValueSet.expansion.offset</t>
-  </si>
-  <si>
-    <t>offset</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.expansion.offset</t>
-  </si>
-  <si>
-    <t>ValueSet.expansion.parameter</t>
-  </si>
-  <si>
-    <t>parameter</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.expansion.parameter</t>
-  </si>
-  <si>
-    <t>ValueSet.expansion.parameter.name</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.expansion.parameter.name</t>
-  </si>
-  <si>
-    <t>ValueSet.expansion.parameter.value[x]</t>
-  </si>
-  <si>
-    <t>value[x]</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.expansion.parameter.value[x]</t>
-  </si>
-  <si>
-    <t>ValueSet.expansion.property</t>
-  </si>
-  <si>
-    <t>ValueSet.expansion.property.code</t>
-  </si>
-  <si>
-    <t>ValueSet.expansion.property.uri</t>
-  </si>
-  <si>
-    <t>uri</t>
-  </si>
-  <si>
     <t>ValueSet.expansion.contains.system</t>
   </si>
   <si>
@@ -814,27 +724,6 @@
   </si>
   <si>
     <t>exclusionCriteria</t>
-  </si>
-  <si>
-    <t>ValueSet.expansion.contains.designation.language</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.expansion.contains.designation.language</t>
-  </si>
-  <si>
-    <t>ValueSet.expansion.contains.designation.use</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.expansion.contains.designation.use</t>
-  </si>
-  <si>
-    <t>ValueSet.expansion.contains.designation.additionalUse</t>
-  </si>
-  <si>
-    <t>ValueSet.expansion.contains.designation.value</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ValueSet#ValueSet.expansion.contains.designation.value</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +980,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1836,20 +1725,20 @@
         <v>175</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="E57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="B58" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>55</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -1862,7 +1751,7 @@
         <v>179</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -1875,11 +1764,11 @@
         <v>181</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E60" s="2"/>
     </row>
@@ -1888,258 +1777,258 @@
         <v>183</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>153</v>
+        <v>60</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="E65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="E67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>197</v>
+        <v>139</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="E68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="E69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E70" s="2"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="E73" s="2"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>161</v>
+        <v>55</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="E74" s="2"/>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>210</v>
+        <v>139</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E75" s="2"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E76" s="2"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="E77" s="2"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>217</v>
+        <v>161</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E78" s="2"/>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>220</v>
+        <v>139</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="E79" s="2"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="E80" s="2"/>
     </row>
@@ -2152,347 +2041,87 @@
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="E81" s="2"/>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="E82" s="2"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="E83" s="2"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="E84" s="2"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>211</v>
+        <v>32</v>
       </c>
       <c r="E85" s="2"/>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>211</v>
+        <v>32</v>
       </c>
       <c r="E86" s="2"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>238</v>
+        <v>32</v>
       </c>
       <c r="E87" s="2"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="E90" s="2"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="E91" s="2"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="E93" s="2"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="E95" s="2"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="E97" s="2"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="E98" s="2"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="E99" s="2"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="E100" s="2"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="E101" s="2"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="E102" s="2"/>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="E103" s="2"/>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="E104" s="2"/>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="E105" s="2"/>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="E106" s="2"/>
-    </row>
-    <row r="107">
-      <c r="A107" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C107" s="2"/>
-      <c r="D107" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="E107" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
